--- a/GL280_Script_MaintainAccountingCalendar_21B.xlsx
+++ b/GL280_Script_MaintainAccountingCalendar_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321750C8-C2F7-487F-87B5-CF7F208F1CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11655834-EC49-439F-9FAB-6134FACC3998}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaintainAcctCalendar" sheetId="30" r:id="rId1"/>
@@ -18138,7 +18138,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>

--- a/GL280_Script_MaintainAccountingCalendar_21B.xlsx
+++ b/GL280_Script_MaintainAccountingCalendar_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11655834-EC49-439F-9FAB-6134FACC3998}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321750C8-C2F7-487F-87B5-CF7F208F1CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaintainAcctCalendar" sheetId="30" r:id="rId1"/>
@@ -18138,7 +18138,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
